--- a/data/trans_dic/P24_6_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P24_6_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dolores musculares o de articulaciones con bastante o mucha frecuencia</t>
+          <t>Población con dolores musculares o de articulaciones con bastante o mucha frecuencia (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,06%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>36,28%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>35,48%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>38,46%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>41,57%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>51,2%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>55,01%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>52,73%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>59,08%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>33,66%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>35,43%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>43,62%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>45,96%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>48,01%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>52,45%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>50,3%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>62,65%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>38,53%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>36,19%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>44,06%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>43,79%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>54,19%</t>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>37,84%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>46,52%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>44,99%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>50,66%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,1; 36,08</t>
+          <t>17,15; 36,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,73; 28,4</t>
+          <t>13,62; 29,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,75; 40,62</t>
+          <t>29,41; 44,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,53; 41,95</t>
+          <t>28,87; 42,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>37,43; 49,65</t>
+          <t>23,8; 48,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>41,28; 51,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>41,38; 54,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>47,2; 57,89</t>
+          <t>32,6; 50,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>43,0; 55,96</t>
+          <t>43,48; 60,2</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>55,88; 67,92</t>
+          <t>48,77; 60,52</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>34,51; 42,56</t>
+          <t>47,76; 57,89</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>31,55; 41,61</t>
+          <t>50,77; 67,18</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>39,87; 48,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>39,1; 48,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>49,47; 58,17</t>
+          <t>26,92; 40,51</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>30,66; 43,76</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>42,12; 51,76</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>40,61; 49,14</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>42,23; 57,91</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>21,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,27%</t>
+          <t>31,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>34,31%</t>
+          <t>33,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>38,39%</t>
+          <t>33,77%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>45,01%</t>
+          <t>36,08%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>38,72%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>24,43%</t>
+          <t>42,34%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>25,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>29,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>35,26%</t>
+          <t>24,54%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>26,16%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>27,14%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>29,82%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>36,84%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,36; 18,06</t>
+          <t>11,08; 20,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,44; 20,17</t>
+          <t>13,81; 22,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,74; 21,46</t>
+          <t>14,61; 22,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,87; 25,38</t>
+          <t>18,17; 26,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,28; 31,58</t>
+          <t>25,54; 38,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,19; 34,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,66; 36,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,72; 38,16</t>
+          <t>27,79; 38,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34,28; 42,3</t>
+          <t>28,61; 39,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>40,34; 49,27</t>
+          <t>31,77; 40,16</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20,93; 25,43</t>
+          <t>34,59; 42,89</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>21,67; 27,16</t>
+          <t>36,38; 47,34</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>23,34; 28,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>26,44; 32,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>32,07; 38,02</t>
+          <t>21,07; 28,52</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>22,83; 29,73</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>24,38; 30,2</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>27,01; 32,73</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>32,94; 41,34</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>20,13%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>27,08%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>25,06%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>28,01%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>27,91%</t>
         </is>
       </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>27,28%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>19,79%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>19,77%</t>
-        </is>
-      </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>25,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>22,32%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>22,74%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>21,16%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>25,81%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>24,17%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,25; 17,79</t>
+          <t>11,31; 21,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,19; 19,43</t>
+          <t>13,22; 24,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,84; 20,13</t>
+          <t>13,13; 20,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,57; 28,61</t>
+          <t>19,31; 27,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,51; 26,39</t>
+          <t>15,46; 25,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,7; 29,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,47; 28,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,55; 27,87</t>
+          <t>22,38; 33,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,02; 31,42</t>
+          <t>22,49; 32,59</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,18; 33,07</t>
+          <t>21,68; 29,66</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,1; 22,47</t>
+          <t>24,24; 31,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,99; 23,08</t>
+          <t>23,34; 32,89</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>17,43; 22,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>22,9; 28,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>19,64; 27,76</t>
+          <t>18,64; 26,27</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>19,25; 26,48</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>18,38; 24,01</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>23,22; 28,59</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>20,62; 27,58</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,29%</t>
+          <t>24,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35,91%</t>
+          <t>32,69%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>38,15%</t>
+          <t>32,3%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>47,17%</t>
+          <t>35,14%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>25,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>39,99%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>28,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>38,74%</t>
+          <t>25,17%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>24,02%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>26,39%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>31,6%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,09; 19,53</t>
+          <t>15,27; 20,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,42; 19,4</t>
+          <t>12,31; 20,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,34; 23,44</t>
+          <t>14,2; 24,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,33; 27,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,53; 33,82</t>
+          <t>19,64; 30,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,57; 35,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,02; 36,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,39; 38,35</t>
+          <t>29,7; 36,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>35,79; 40,67</t>
+          <t>27,98; 36,69</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>44,02; 50,47</t>
+          <t>29,97; 40,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23,53; 26,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,57; 27,42</t>
+          <t>34,61; 45,59</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>26,91; 30,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>29,78; 33,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>36,59; 41,21</t>
+          <t>23,07; 27,52</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>21,35; 27,5</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>22,98; 30,84</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>27,81; 35,61</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>17,41%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17,51%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>20,69%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>25,1%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>27,2%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>32,74%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>33,81%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>36,35%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>38,74%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>41,08%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>25,24%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>25,83%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>28,67%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>32,05%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>34,31%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>15,37; 19,68</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15,43; 20,42</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>18,51; 23,14</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>22,36; 27,87</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>24,34; 30,48</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>30,28; 35,08</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>31,05; 36,57</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>33,97; 38,7</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>36,21; 41,18</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>38,18; 44,15</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>23,6; 26,88</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>23,99; 27,8</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>26,85; 30,42</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>30,26; 34,03</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>31,89; 36,46</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolores musculares o de articulaciones con bastante o mucha frecuencia (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>55534</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>72040</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>191515</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>258394</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>169805</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>108773</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>215920</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>349912</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>472425</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>378111</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>164306</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>287960</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>541426</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>730819</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>547916</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>38854; 81991</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>46190; 99460</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>155255; 232364</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>210233; 309000</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>105081; 215521</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>85311; 131526</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>183355; 253867</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>310206; 384950</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>427951; 518727</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>324952; 429958</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>131433; 197773</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>233332; 332945</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>490202; 602509</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>659704; 798164</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>456658; 626248</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>299.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>423.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>97268</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>167954</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>217716</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>347441</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>333821</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>237954</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>337674</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>443592</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>583803</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>458731</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>335222</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>505628</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>661307</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>931244</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>792552</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>72110; 130837</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>128816; 213068</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>176327; 274618</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>293496; 422754</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>272678; 408620</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>198705; 277156</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>286068; 391827</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>390662; 493820</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>521529; 646651</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>394155; 512887</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>287748; 389587</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>441284; 574591</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>594118; 735814</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>843353; 1022108</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>708685; 889392</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>272.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>72355</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>129344</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>142340</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>256030</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>167229</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>148010</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>208297</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>235572</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>325872</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>250394</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>220365</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>337640</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>377912</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>581902</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>417623</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>51552; 98997</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>94577; 175726</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>111013; 175465</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>210725; 305310</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>128466; 211051</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>118988; 177562</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>172965; 250708</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>203823; 278759</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>281974; 371897</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>209366; 295053</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>184063; 259414</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>285874; 393233</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>328221; 428774</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>523474; 644465</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>356235; 476629</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>451.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>375106</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>233387</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>157850</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>263119</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>683150</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>452382</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>266190</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>393762</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1058255</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>685768</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>424040</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>656881</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>322783; 434721</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>179098; 302000</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>120537; 211911</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>214892; 330425</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>620552; 753950</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>391869; 513910</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>227085; 308962</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>340739; 448905</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>970078; 1156925</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>609725; 785230</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>369149; 495530</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>578076; 740057</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>346.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>292.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>522.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>449.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>600.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>657.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>523.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>767.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>657.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>890.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>1003.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>815.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>600263</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>602724</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>709421</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>861865</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>933974</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1177886</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1214272</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1295265</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1382100</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1480998</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1778149</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1816997</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>2004686</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>2243965</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>2414971</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>529881; 678562</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>531203; 702749</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>634746; 793416</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>767991; 957070</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>835927; 1046877</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1089619; 1262333</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1115262; 1313495</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1210501; 1379045</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1291759; 1468901</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1376536; 1591582</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1663061; 1894112</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1687322; 1955356</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>1877642; 2127053</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>2118412; 2382516</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>2244550; 2566323</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
